--- a/measurements/net_m.xlsx
+++ b/measurements/net_m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7720BE-AB5E-44C0-ACB4-B23DE154DE23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA48C5D5-1E0E-4966-B3BD-2F0AECA5D11D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -57,10 +57,10 @@
     <t>p</t>
   </si>
   <si>
-    <t>bus</t>
+    <t>q</t>
   </si>
   <si>
-    <t>q</t>
+    <t>bus</t>
   </si>
 </sst>
 </file>
@@ -119,16 +119,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -462,17 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -485,7 +498,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -500,16 +513,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -520,19 +533,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>-0.28000000000000003</v>
+        <v>-0.12670000000000001</v>
       </c>
       <c r="G3">
         <v>1E-3</v>
@@ -540,19 +553,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>-0.3</v>
+        <v>-0.1701</v>
       </c>
       <c r="G4">
         <v>1E-3</v>
@@ -560,19 +573,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>-0.23749999999999999</v>
+        <v>-0.15820000000000001</v>
       </c>
       <c r="G5">
         <v>1E-3</v>
@@ -580,19 +593,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.17849999999999999</v>
       </c>
       <c r="G6">
         <v>1E-3</v>
@@ -600,19 +613,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>-0.22499999999999998</v>
+        <v>-0.1694</v>
       </c>
       <c r="G7">
         <v>1E-3</v>
@@ -620,19 +633,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>-0.32500000000000001</v>
+        <v>-0.12670000000000001</v>
       </c>
       <c r="G8">
         <v>1E-3</v>
@@ -640,19 +653,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>-0.24249999999999999</v>
+        <v>-0.1484</v>
       </c>
       <c r="G9">
         <v>1E-3</v>
@@ -660,19 +673,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>-0.25</v>
+        <v>-0.14979999999999999</v>
       </c>
       <c r="G10">
         <v>1E-3</v>
@@ -680,19 +693,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0.1603</v>
       </c>
       <c r="G11">
         <v>1E-3</v>
@@ -700,19 +713,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>-0.1477</v>
+        <v>-0.1288</v>
       </c>
       <c r="G12">
         <v>1E-3</v>
@@ -720,19 +733,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>-0.14910000000000001</v>
+        <v>-0.12809999999999999</v>
       </c>
       <c r="G13">
         <v>1E-3</v>
@@ -740,19 +753,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>-0.1288</v>
+        <v>-0.1701</v>
       </c>
       <c r="G14">
         <v>1E-3</v>
@@ -760,19 +773,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>-0.1162</v>
+        <v>-0.1176</v>
       </c>
       <c r="G15">
         <v>1E-3</v>
@@ -780,19 +793,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
+        <v>17</v>
       </c>
       <c r="F16">
-        <v>-0.16870000000000002</v>
+        <v>-0.12740000000000001</v>
       </c>
       <c r="G16">
         <v>1E-3</v>
@@ -800,19 +813,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>-0.18060000000000001</v>
       </c>
       <c r="G17">
         <v>1E-3</v>
@@ -820,339 +833,339 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>19</v>
       </c>
       <c r="F18">
-        <v>1.0000113983437999</v>
+        <v>-0.1792</v>
       </c>
       <c r="G18">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="E19" s="3">
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>1.00005106681722</v>
+        <v>-0.11549999999999999</v>
       </c>
       <c r="G19">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
+        <v>22</v>
       </c>
       <c r="F20">
-        <v>1.0000297117141901</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>0.99999278474748499</v>
+        <v>-5</v>
       </c>
       <c r="G21">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
+        <v>24</v>
       </c>
       <c r="F22">
-        <v>1.0000356797946199</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>26</v>
       </c>
       <c r="F23">
-        <v>1.00000631868708</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>27</v>
       </c>
       <c r="F24">
-        <v>1.00001949771655</v>
+        <v>-0.2</v>
       </c>
       <c r="G24">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="E25" s="3">
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>1.00003888533826</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
+        <v>29</v>
       </c>
       <c r="F26">
-        <v>0.99998717243479496</v>
+        <v>-9.9999999999999992E-2</v>
       </c>
       <c r="G26">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>30</v>
       </c>
       <c r="F27">
-        <v>1.0000099332788399</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
+        <v>31</v>
       </c>
       <c r="F28">
-        <v>1.0000069446656199</v>
+        <v>-0.1</v>
       </c>
       <c r="G28">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
+        <v>32</v>
       </c>
       <c r="F29">
-        <v>0.99999013439191398</v>
+        <v>-0.15</v>
       </c>
       <c r="G29">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="E30" s="3">
+        <v>33</v>
       </c>
       <c r="F30">
-        <v>0.99995927969589404</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
+        <v>34</v>
       </c>
       <c r="F31">
-        <v>1.00000812338336</v>
+        <v>-0.2</v>
       </c>
       <c r="G31">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
+        <v>35</v>
       </c>
       <c r="F32">
-        <v>0.99992165241681297</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>36</v>
       </c>
       <c r="F33">
-        <v>0.99992653462407799</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="E34" s="3">
+        <v>37</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G34">
         <v>1E-3</v>
@@ -1160,19 +1173,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>38</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="G35">
         <v>1E-3</v>
@@ -1180,19 +1193,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <v>39</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="G36">
         <v>1E-3</v>
@@ -1200,16 +1213,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
+        <v>40</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1220,19 +1233,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="E38" s="3">
+        <v>41</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="G38">
         <v>1E-3</v>
@@ -1240,19 +1253,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="E39" s="3">
+        <v>42</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="G39">
         <v>1E-3</v>
@@ -1260,19 +1273,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="E40" s="3">
+        <v>43</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="G40">
         <v>1E-3</v>
@@ -1280,19 +1293,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="G41">
         <v>1E-3</v>
@@ -1300,19 +1313,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>-9.9999999999999992E-2</v>
       </c>
       <c r="G42">
         <v>1E-3</v>
@@ -1320,16 +1333,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="E43" s="3">
+        <v>47</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1340,16 +1353,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="E44" s="3">
+        <v>48</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1360,19 +1373,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="E45" s="3">
+        <v>49</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="G45">
         <v>1E-3</v>
@@ -1380,19 +1393,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="E46" s="3">
+        <v>50</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="G46">
         <v>1E-3</v>
@@ -1400,19 +1413,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3">
         <v>51</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>-0.23749999999999999</v>
       </c>
       <c r="G47">
         <v>1E-3</v>
@@ -1420,15 +1433,15 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3">
         <v>52</v>
       </c>
       <c r="F48">
@@ -1440,19 +1453,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="E49" s="3">
+        <v>53</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.22499999999999998</v>
       </c>
       <c r="G49">
         <v>1E-3</v>
@@ -1460,19 +1473,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E50" s="3">
+        <v>54</v>
       </c>
       <c r="F50">
-        <v>-5</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="G50">
         <v>1E-3</v>
@@ -1480,19 +1493,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E51" s="3">
+        <v>55</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>-0.24249999999999999</v>
       </c>
       <c r="G51">
         <v>1E-3</v>
@@ -1500,19 +1513,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E52" s="3">
+        <v>56</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="G52">
         <v>1E-3</v>
@@ -1520,16 +1533,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="E53" s="3">
+        <v>57</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1540,459 +1553,459 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="E54" s="3">
+        <v>58</v>
       </c>
       <c r="F54">
-        <v>1.00002302428816</v>
+        <v>-0.1477</v>
       </c>
       <c r="G54">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E55" s="3">
+        <v>59</v>
       </c>
       <c r="F55">
-        <v>0.99994865398916399</v>
+        <v>-0.14910000000000001</v>
       </c>
       <c r="G55">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E56" s="3">
+        <v>60</v>
       </c>
       <c r="F56">
-        <v>0.99998006252696303</v>
+        <v>-0.1288</v>
       </c>
       <c r="G56">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="E57" s="3">
+        <v>61</v>
       </c>
       <c r="F57">
-        <v>1.00002302428816</v>
+        <v>-0.1162</v>
       </c>
       <c r="G57">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="E58" s="3">
+        <v>62</v>
       </c>
       <c r="F58">
-        <v>0.99994865398916399</v>
+        <v>-0.16870000000000002</v>
       </c>
       <c r="G58">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E59" s="3">
+        <v>63</v>
       </c>
       <c r="F59">
-        <v>0.99998006252696303</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.0000428562202499</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3</v>
       </c>
       <c r="F61">
-        <v>0.99999136436147096</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4</v>
       </c>
       <c r="F62">
-        <v>1.0000669827737501</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="E63" s="3">
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>0.99999512991236705</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="E64" s="3">
+        <v>6</v>
       </c>
       <c r="F64">
-        <v>0.99995774663183901</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="E65" s="3">
+        <v>7</v>
       </c>
       <c r="F65">
-        <v>1.0000538908456</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8</v>
       </c>
       <c r="F66">
-        <v>1.00002591186737</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="E67" s="3">
+        <v>9</v>
       </c>
       <c r="F67">
-        <v>1.0000435116986199</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E68" s="3">
+        <v>10</v>
       </c>
       <c r="F68">
-        <v>1.0000102170007199</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="E69" s="3">
+        <v>11</v>
       </c>
       <c r="F69">
-        <v>1.00001290932179</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E70" s="3">
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>1.0000376802228499</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="E71" s="3">
+        <v>13</v>
       </c>
       <c r="F71">
-        <v>0.99996742013991902</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="E72" s="3">
+        <v>14</v>
       </c>
       <c r="F72">
-        <v>1.0000147829291299</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="E73" s="3">
+        <v>15</v>
       </c>
       <c r="F73">
-        <v>0.99995162425932804</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="E74" s="3">
+        <v>16</v>
       </c>
       <c r="F74">
-        <v>0.99995450565959498</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="E75" s="3">
+        <v>17</v>
       </c>
       <c r="F75">
-        <v>1.0000504468612601</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>4.0000000000000003E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="E76" s="3">
+        <v>18</v>
       </c>
       <c r="F76">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>1E-3</v>
@@ -2000,16 +2013,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="E77" s="3">
+        <v>19</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2020,19 +2033,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E78" s="3">
+        <v>20</v>
       </c>
       <c r="F78">
-        <v>-9.9999999999999992E-2</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <v>1E-3</v>
@@ -2040,16 +2053,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E79" s="3">
+        <v>22</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2060,19 +2073,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="E80" s="3">
+        <v>23</v>
       </c>
       <c r="F80">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G80">
         <v>1E-3</v>
@@ -2080,19 +2093,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
+        <v>24</v>
       </c>
       <c r="F81">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>1E-3</v>
@@ -2100,16 +2113,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="E82" s="3">
+        <v>26</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2120,19 +2133,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="E83" s="3">
+        <v>27</v>
       </c>
       <c r="F83">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>1E-3</v>
@@ -2140,16 +2153,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="E84" s="3">
+        <v>28</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2160,16 +2173,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="E85" s="3">
+        <v>29</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2180,19 +2193,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="E86" s="3">
+        <v>30</v>
       </c>
       <c r="F86">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>1E-3</v>
@@ -2200,19 +2213,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E87" s="3">
+        <v>31</v>
       </c>
       <c r="F87">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>1E-3</v>
@@ -2220,19 +2233,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="E88" s="3">
+        <v>32</v>
       </c>
       <c r="F88">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>1E-3</v>
@@ -2240,16 +2253,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E89" s="3">
+        <v>33</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2260,19 +2273,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="E90" s="3">
+        <v>34</v>
       </c>
       <c r="F90">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>1E-3</v>
@@ -2280,19 +2293,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="E91" s="3">
+        <v>35</v>
       </c>
       <c r="F91">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <v>1E-3</v>
@@ -2300,19 +2313,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="E92" s="3">
+        <v>36</v>
       </c>
       <c r="F92">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>1E-3</v>
@@ -2320,19 +2333,19 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="E93" s="3">
+        <v>37</v>
       </c>
       <c r="F93">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <v>1E-3</v>
@@ -2340,19 +2353,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="E94" s="3">
+        <v>38</v>
       </c>
       <c r="F94">
-        <v>-9.9999999999999992E-2</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <v>1E-3</v>
@@ -2360,16 +2373,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="E95" s="3">
+        <v>39</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2380,16 +2393,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="E96" s="3">
+        <v>40</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2400,16 +2413,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E97" s="3">
+        <v>41</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2420,16 +2433,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E98" s="3">
+        <v>42</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2440,16 +2453,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="E99" s="3">
+        <v>43</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2460,16 +2473,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="E100" s="3">
+        <v>44</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2480,16 +2493,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="E101" s="3">
+        <v>45</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2500,16 +2513,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="E102" s="3">
+        <v>47</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2520,16 +2533,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="E103" s="3">
+        <v>48</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2540,16 +2553,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="E104" s="3">
+        <v>49</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2560,16 +2573,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="E105" s="3">
+        <v>50</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2580,16 +2593,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E106" s="3">
+        <v>51</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -2600,16 +2613,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="E107" s="3">
+        <v>52</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2620,16 +2633,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E108" s="3">
+        <v>53</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2640,16 +2653,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="E109" s="3">
+        <v>54</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -2660,16 +2673,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="E110" s="3">
+        <v>55</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2680,16 +2693,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="E111" s="3">
+        <v>56</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -2700,16 +2713,16 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="E112" s="3">
+        <v>57</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2720,16 +2733,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="E113" s="3">
+        <v>58</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -2740,19 +2753,19 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E114" s="3">
+        <v>59</v>
       </c>
       <c r="F114">
-        <v>-0.12670000000000001</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>1E-3</v>
@@ -2760,19 +2773,19 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E115" s="3">
+        <v>60</v>
       </c>
       <c r="F115">
-        <v>-0.1701</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <v>1E-3</v>
@@ -2780,19 +2793,19 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E116" s="3">
+        <v>61</v>
       </c>
       <c r="F116">
-        <v>-0.15820000000000001</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <v>1E-3</v>
@@ -2800,19 +2813,19 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E117" s="3">
+        <v>62</v>
       </c>
       <c r="F117">
-        <v>-0.17849999999999999</v>
+        <v>0</v>
       </c>
       <c r="G117">
         <v>1E-3</v>
@@ -2820,19 +2833,19 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E118" s="3">
+        <v>63</v>
       </c>
       <c r="F118">
-        <v>-0.1694</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <v>1E-3</v>
@@ -2840,19 +2853,19 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E119" s="3">
+        <v>46</v>
       </c>
       <c r="F119">
-        <v>-0.12670000000000001</v>
+        <v>0</v>
       </c>
       <c r="G119">
         <v>1E-3</v>
@@ -2860,945 +2873,1228 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E120" s="3">
+        <v>3</v>
       </c>
       <c r="F120">
-        <v>-0.1484</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E121" s="3">
+        <v>4</v>
       </c>
       <c r="F121">
-        <v>-0.14979999999999999</v>
+        <v>1.00000150150037</v>
       </c>
       <c r="G121">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E122" s="3">
+        <v>5</v>
       </c>
       <c r="F122">
-        <v>-0.1603</v>
+        <v>0.99999695787768295</v>
       </c>
       <c r="G122">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E123" s="3">
+        <v>6</v>
       </c>
       <c r="F123">
-        <v>-0.1288</v>
+        <v>0.99999272134207695</v>
       </c>
       <c r="G123">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E124" s="3">
+        <v>7</v>
       </c>
       <c r="F124">
-        <v>-0.12809999999999999</v>
+        <v>1.0000017227740301</v>
       </c>
       <c r="G124">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E125" s="3">
+        <v>8</v>
       </c>
       <c r="F125">
-        <v>-0.1701</v>
+        <v>0.99999821177385995</v>
       </c>
       <c r="G125">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E126" s="3">
+        <v>9</v>
       </c>
       <c r="F126">
-        <v>-0.1176</v>
+        <v>1.0000038900111401</v>
       </c>
       <c r="G126">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E127" s="3">
+        <v>10</v>
       </c>
       <c r="F127">
-        <v>-0.12740000000000001</v>
+        <v>1.0000060798769399</v>
       </c>
       <c r="G127">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E128" s="3">
+        <v>11</v>
       </c>
       <c r="F128">
-        <v>-0.18060000000000001</v>
+        <v>1.00000493279415</v>
       </c>
       <c r="G128">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E129" s="3">
+        <v>12</v>
       </c>
       <c r="F129">
-        <v>-0.1792</v>
+        <v>1.0000023752017</v>
       </c>
       <c r="G129">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E130" s="3">
+        <v>13</v>
       </c>
       <c r="F130">
-        <v>-0.11549999999999999</v>
+        <v>1.00000150924645</v>
       </c>
       <c r="G130">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
-      </c>
-      <c r="E131">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E131" s="3">
+        <v>14</v>
       </c>
       <c r="F131">
-        <v>1.00000150150037</v>
+        <v>1.0000018831733699</v>
       </c>
       <c r="G131">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E132" s="3">
+        <v>15</v>
       </c>
       <c r="F132">
-        <v>0.99999695787768295</v>
+        <v>0.99999774616845705</v>
       </c>
       <c r="G132">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E133" s="3">
+        <v>16</v>
       </c>
       <c r="F133">
-        <v>0.99999272134207695</v>
+        <v>0.99999777186814498</v>
       </c>
       <c r="G133">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E134" s="3">
+        <v>17</v>
       </c>
       <c r="F134">
-        <v>1.0000017227740301</v>
+        <v>1.00000163201113</v>
       </c>
       <c r="G134">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E135" s="3">
+        <v>18</v>
       </c>
       <c r="F135">
-        <v>0.99999821177385995</v>
+        <v>0.99999749788342496</v>
       </c>
       <c r="G135">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E136" s="3">
+        <v>19</v>
       </c>
       <c r="F136">
-        <v>1.0000038900111401</v>
+        <v>1.00000534779554</v>
       </c>
       <c r="G136">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
-      </c>
-      <c r="E137">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E137" s="3">
+        <v>20</v>
       </c>
       <c r="F137">
-        <v>1.0000060798769399</v>
+        <v>0.99999201244174496</v>
       </c>
       <c r="G137">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E138" s="3">
+        <v>22</v>
       </c>
       <c r="F138">
-        <v>1.00000493279415</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
-      </c>
-      <c r="E139">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E139" s="3">
+        <v>23</v>
       </c>
       <c r="F139">
-        <v>1.0000023752017</v>
+        <v>1</v>
       </c>
       <c r="G139">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
-      </c>
-      <c r="E140">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E140" s="3">
+        <v>24</v>
       </c>
       <c r="F140">
-        <v>1.00000150924645</v>
+        <v>1.000000338094253</v>
       </c>
       <c r="G140">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E141" s="3">
+        <v>26</v>
       </c>
       <c r="F141">
-        <v>1.0000018831733699</v>
+        <v>1</v>
       </c>
       <c r="G141">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E142" s="3">
+        <v>27</v>
       </c>
       <c r="F142">
-        <v>0.99999774616845705</v>
+        <v>1.00002302428816</v>
       </c>
       <c r="G142">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E143" s="3">
+        <v>28</v>
       </c>
       <c r="F143">
-        <v>0.99999777186814498</v>
+        <v>0.99994865398916399</v>
       </c>
       <c r="G143">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E144" s="3">
+        <v>29</v>
       </c>
       <c r="F144">
-        <v>1.00000163201113</v>
+        <v>0.99998006252696303</v>
       </c>
       <c r="G144">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E145" s="3">
+        <v>30</v>
       </c>
       <c r="F145">
-        <v>0.99999749788342496</v>
+        <v>1.0000428562202499</v>
       </c>
       <c r="G145">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E146" s="3">
+        <v>31</v>
       </c>
       <c r="F146">
-        <v>1.00000534779554</v>
+        <v>0.99999136436147096</v>
       </c>
       <c r="G146">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E147" s="3">
+        <v>32</v>
       </c>
       <c r="F147">
-        <v>0.99999201244174496</v>
+        <v>1.0000669827737501</v>
       </c>
       <c r="G147">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E148" s="3">
+        <v>33</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>0.99999512991236705</v>
       </c>
       <c r="G148">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E149" s="3">
+        <v>34</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>0.99995774663183901</v>
       </c>
       <c r="G149">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E150" s="3">
+        <v>35</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1.0000538908456</v>
       </c>
       <c r="G150">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="C151" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E151" s="3">
+        <v>36</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1.00002591186737</v>
       </c>
       <c r="G151">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E152" s="3">
+        <v>37</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1.0000435116986199</v>
       </c>
       <c r="G152">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E153" s="3">
+        <v>38</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1.0000102170007199</v>
       </c>
       <c r="G153">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="C154" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
-      </c>
-      <c r="E154">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E154" s="3">
+        <v>39</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1.00001290932179</v>
       </c>
       <c r="G154">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E155" s="3">
+        <v>40</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1.0000376802228499</v>
       </c>
       <c r="G155">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E156" s="3">
+        <v>41</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>0.99996742013991902</v>
       </c>
       <c r="G156">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E157" s="3">
+        <v>42</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1.0000147829291299</v>
       </c>
       <c r="G157">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E158" s="3">
+        <v>43</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>0.99995162425932804</v>
       </c>
       <c r="G158">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E159" s="3">
+        <v>44</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>0.99995450565959498</v>
       </c>
       <c r="G159">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E160" s="3">
+        <v>45</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1.0000504468612601</v>
       </c>
       <c r="G160">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E161" s="3">
+        <v>47</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G161">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E162" s="3">
+        <v>48</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1.0000113983437999</v>
       </c>
       <c r="G162">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E163" s="3">
+        <v>49</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1.00005106681722</v>
       </c>
       <c r="G163">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1">
+        <v>132</v>
+      </c>
       <c r="C164" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E164" s="3">
+        <v>50</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1.0000297117141901</v>
       </c>
       <c r="G164">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1">
+        <v>135</v>
+      </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E165" s="3">
+        <v>51</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>0.99999278474748499</v>
       </c>
       <c r="G165">
-        <v>1E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1">
+        <v>138</v>
+      </c>
       <c r="C166" t="s">
         <v>7</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E166" s="3">
+        <v>52</v>
       </c>
       <c r="F166">
+        <v>1.0000356797946199</v>
+      </c>
+      <c r="G166">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>141</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="3">
+        <v>53</v>
+      </c>
+      <c r="F167">
+        <v>1.00000631868708</v>
+      </c>
+      <c r="G167">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>144</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="3">
+        <v>54</v>
+      </c>
+      <c r="F168">
+        <v>1.00001949771655</v>
+      </c>
+      <c r="G168">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>147</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="3">
+        <v>55</v>
+      </c>
+      <c r="F169">
+        <v>1.00003888533826</v>
+      </c>
+      <c r="G169">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>150</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="3">
+        <v>56</v>
+      </c>
+      <c r="F170">
+        <v>0.99998717243479496</v>
+      </c>
+      <c r="G170">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>153</v>
+      </c>
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="3">
+        <v>57</v>
+      </c>
+      <c r="F171">
+        <v>1.0000099332788399</v>
+      </c>
+      <c r="G171">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>156</v>
+      </c>
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="3">
+        <v>58</v>
+      </c>
+      <c r="F172">
+        <v>1.0000069446656199</v>
+      </c>
+      <c r="G172">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>159</v>
+      </c>
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="3">
+        <v>59</v>
+      </c>
+      <c r="F173">
+        <v>0.99999013439191398</v>
+      </c>
+      <c r="G173">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>162</v>
+      </c>
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="3">
+        <v>60</v>
+      </c>
+      <c r="F174">
+        <v>0.99995927969589404</v>
+      </c>
+      <c r="G174">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>165</v>
+      </c>
+      <c r="C175" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="3">
+        <v>61</v>
+      </c>
+      <c r="F175">
+        <v>1.00000812338336</v>
+      </c>
+      <c r="G175">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>168</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" s="3">
+        <v>62</v>
+      </c>
+      <c r="F176">
+        <v>0.99992165241681297</v>
+      </c>
+      <c r="G176">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>171</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="3">
+        <v>63</v>
+      </c>
+      <c r="F177">
+        <v>0.99992653462407799</v>
+      </c>
+      <c r="G177">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>174</v>
+      </c>
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>10</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0</v>
+      </c>
+      <c r="F178">
         <v>1</v>
       </c>
-      <c r="G166">
-        <v>4.0000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
+      <c r="G178">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>175</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>0.99980534389368525</v>
+      </c>
+      <c r="G179">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>176</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="3">
+        <v>21</v>
+      </c>
+      <c r="F180">
+        <v>1.000140024550257</v>
+      </c>
+      <c r="G180">
+        <v>4.0000000000000002E-4</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H180">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>